--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1891857.416613657</v>
+        <v>-1895422.918487207</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14179344.06416292</v>
+        <v>14175804.18782041</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>12.21712236911349</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>296.9706303402583</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -674,10 +674,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.68199903936446</v>
+        <v>17.59637975616121</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -823,10 +823,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>137.3252616208329</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>76.74086563202125</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.8827043918315</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>140.4574902534682</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226706</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>12.86332719739918</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>92.73469553428545</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>81.29861423793346</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>136.0792665007006</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>18.40493044541364</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>21.10156515063348</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0.7540220763313302</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>116.2865821140313</v>
+        <v>101.6188248487976</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>60.67542644480754</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.65165763675132</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1588,7 +1588,7 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>283.2850261637234</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>188.3007549239269</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1667,13 +1667,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>50.07465804275621</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>142.9144490181548</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541621</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596575003</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565015</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167847</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196088</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380061</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667972</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644699</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883912</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541116</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658309</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701039012</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656633</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-4.182960467056043e-14</v>
       </c>
       <c r="S41" t="n">
         <v>34.48845019277559</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1004.174343515858</v>
+        <v>1080.708518265157</v>
       </c>
       <c r="C2" t="n">
-        <v>991.8338158702888</v>
+        <v>687.5330167680875</v>
       </c>
       <c r="D2" t="n">
-        <v>606.3926870869566</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="E2" t="n">
-        <v>203.8091622035011</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>95.16671432390825</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222168</v>
+        <v>588.4870060424371</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354866</v>
+        <v>588.4870060424371</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.27650096432</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523736</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523736</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="V2" t="n">
-        <v>1404.669089227255</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="W2" t="n">
-        <v>1404.669089227255</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="X2" t="n">
-        <v>1404.669089227255</v>
+        <v>1481.203263976554</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.669089227255</v>
+        <v>1481.203263976554</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585114</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466459</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2150.865926635812</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1973.88211483472</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U3" t="n">
-        <v>1763.818971513362</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V3" t="n">
-        <v>1541.278969884429</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W3" t="n">
-        <v>1311.161724017716</v>
+        <v>1076.610414996762</v>
       </c>
       <c r="X3" t="n">
-        <v>1121.854646367728</v>
+        <v>887.3033373467738</v>
       </c>
       <c r="Y3" t="n">
-        <v>942.5404294432349</v>
+        <v>707.9891204222811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.333890426251</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1287724922402</v>
+        <v>510.0211067816483</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475495</v>
+        <v>354.3879936841631</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475495</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>603.4142126432679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>603.4142126432679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>369.333890426251</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.333890426251</v>
+        <v>865.4342434069604</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1414.473495167765</v>
+        <v>911.3409287819263</v>
       </c>
       <c r="C5" t="n">
-        <v>1414.473495167765</v>
+        <v>911.3409287819263</v>
       </c>
       <c r="D5" t="n">
-        <v>1414.473495167765</v>
+        <v>525.8997999985941</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>525.8997999985941</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>513.0457655689759</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354866</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1635.122736924596</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297164</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="U5" t="n">
-        <v>1951.282367297164</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.282367297164</v>
+        <v>1671.792568880582</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.282367297164</v>
+        <v>1300.79353384887</v>
       </c>
       <c r="X5" t="n">
-        <v>1561.829762230221</v>
+        <v>911.3409287819263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.829762230221</v>
+        <v>911.3409287819263</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021424</v>
+        <v>556.1927859813197</v>
       </c>
       <c r="C6" t="n">
-        <v>655.8134179021424</v>
+        <v>405.5385555414119</v>
       </c>
       <c r="D6" t="n">
-        <v>525.7244505236227</v>
+        <v>275.4495881628923</v>
       </c>
       <c r="E6" t="n">
-        <v>389.2779596345105</v>
+        <v>139.00309727378</v>
       </c>
       <c r="F6" t="n">
-        <v>264.8461535176423</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="G6" t="n">
-        <v>144.7863355895067</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H6" t="n">
-        <v>56.48891919010767</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591876</v>
+        <v>921.5731989359479</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591876</v>
+        <v>921.5731989359479</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182857</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917585</v>
+        <v>1076.610414996762</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675965</v>
+        <v>887.3033373467738</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431038</v>
+        <v>707.9891204222811</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.3804063225795</v>
+        <v>522.561786482426</v>
       </c>
       <c r="C7" t="n">
-        <v>356.3804063225795</v>
+        <v>522.561786482426</v>
       </c>
       <c r="D7" t="n">
-        <v>356.3804063225795</v>
+        <v>522.561786482426</v>
       </c>
       <c r="E7" t="n">
-        <v>200.821594181782</v>
+        <v>522.561786482426</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475495</v>
+        <v>365.235851695399</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475495</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>522.561786482426</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>522.561786482426</v>
       </c>
       <c r="V7" t="n">
-        <v>862.8228695747584</v>
+        <v>522.561786482426</v>
       </c>
       <c r="W7" t="n">
-        <v>579.4924675059361</v>
+        <v>522.561786482426</v>
       </c>
       <c r="X7" t="n">
-        <v>579.4924675059361</v>
+        <v>522.561786482426</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.3804063225795</v>
+        <v>522.561786482426</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579.3302549026308</v>
+        <v>1321.191056167535</v>
       </c>
       <c r="C8" t="n">
-        <v>579.3302549026308</v>
+        <v>1321.191056167535</v>
       </c>
       <c r="D8" t="n">
-        <v>193.8891261192986</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>193.8891261192986</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,16 +4805,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
         <v>2365.64850507718</v>
@@ -4841,13 +4841,13 @@
         <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1321.191056167535</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>1321.191056167535</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.3302549026308</v>
+        <v>1321.191056167535</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>476.7213176107721</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>960.2874035090854</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1545.785408515688</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>2131.28341352229</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.7806474639203</v>
+        <v>529.4716517347779</v>
       </c>
       <c r="C10" t="n">
-        <v>682.7806474639203</v>
+        <v>359.2665338007671</v>
       </c>
       <c r="D10" t="n">
-        <v>682.7806474639203</v>
+        <v>203.6334207032818</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>48.07460856248434</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4996,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>682.7806474639203</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.7806474639203</v>
+        <v>714.6796704260792</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1557.030656569137</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C11" t="n">
-        <v>1235.651430218262</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D11" t="n">
-        <v>922.0065765811235</v>
+        <v>828.6901857016492</v>
       </c>
       <c r="E11" t="n">
-        <v>591.2193268438618</v>
+        <v>828.6901857016492</v>
       </c>
       <c r="F11" t="n">
-        <v>246.1211635200334</v>
+        <v>483.5920223778207</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873813</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2528.079890988294</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2210.423561067545</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1885.72912713434</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2009.716291882317</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.7543609454899</v>
+        <v>495.3882169375164</v>
       </c>
       <c r="C13" t="n">
-        <v>437.7543609454899</v>
+        <v>495.3882169375164</v>
       </c>
       <c r="D13" t="n">
-        <v>353.9175229941985</v>
+        <v>411.551378986225</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,13 +5203,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1473.852179555163</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1342.832370883906</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1178.909594198334</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.167348517031</v>
+        <v>965.2670775864287</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840488</v>
+        <v>771.0840075534469</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614203</v>
+        <v>771.0840075534469</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905973</v>
+        <v>608.7999604826239</v>
       </c>
       <c r="Y13" t="n">
-        <v>551.1661044905973</v>
+        <v>608.7999604826239</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1318.972249543668</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C14" t="n">
-        <v>1318.972249543668</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1005.32739590653</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1005.32739590653</v>
+        <v>815.124613155088</v>
       </c>
       <c r="F14" t="n">
-        <v>660.2292325827013</v>
+        <v>470.0264498312597</v>
       </c>
       <c r="G14" t="n">
-        <v>318.8627522168981</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5276,10 +5276,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358935</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.021483962825</v>
+        <v>2384.738763875581</v>
       </c>
       <c r="X14" t="n">
-        <v>1972.365154042076</v>
+        <v>2067.082433954832</v>
       </c>
       <c r="Y14" t="n">
-        <v>1647.670720108871</v>
+        <v>2067.082433954832</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.5406844434926</v>
+        <v>485.7287123499369</v>
       </c>
       <c r="C16" t="n">
-        <v>462.1318416556758</v>
+        <v>387.3198695621201</v>
       </c>
       <c r="D16" t="n">
-        <v>411.551378986225</v>
+        <v>387.3198695621201</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916214</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964276</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,7 +5437,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027736</v>
@@ -5446,7 +5446,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1444.627927593278</v>
+        <v>1169.250089610754</v>
       </c>
       <c r="U16" t="n">
-        <v>1230.985410981373</v>
+        <v>955.6075729988492</v>
       </c>
       <c r="V16" t="n">
-        <v>1036.802340948391</v>
+        <v>761.4245029658673</v>
       </c>
       <c r="W16" t="n">
-        <v>825.268214025763</v>
+        <v>761.4245029658673</v>
       </c>
       <c r="X16" t="n">
-        <v>825.268214025763</v>
+        <v>599.1404558950443</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.9524279886</v>
+        <v>599.1404558950443</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924248</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411573</v>
@@ -5543,16 +5543,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>494.9732559860694</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,40 +5683,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099307</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358935</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>378.9738643893075</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>862.5399502876207</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>1490.311599914302</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N21" t="n">
-        <v>2146.089571124861</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,46 +5914,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750532</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133172</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445264</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862344</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6072,19 +6072,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012525</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6227,25 +6227,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645896</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6254,7 +6254,7 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6263,13 +6263,13 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
@@ -6373,31 +6373,31 @@
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388004</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662622</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878067</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835529</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311921</v>
+        <v>794.4915056886005</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1287.811797407129</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770099</v>
+        <v>2844.723727844787</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901621</v>
+        <v>3192.911219976309</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131756</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407616</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>354.4036963840245</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>837.9697822823377</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.741431909019</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.671367692973</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404872</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245271</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652546</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597526</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407232</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374223</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729548</v>
+        <v>611.4615154993335</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831234</v>
+        <v>870.6770655353564</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600013</v>
+        <v>1145.033953152047</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1264.910118928626</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250208</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.72572832737</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400726</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045808</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027492</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7108,13 +7108,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.324157721467</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7181,43 +7181,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102857</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7394,22 +7394,22 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,13 +7433,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
@@ -7482,10 +7482,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7558,16 +7558,16 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7576,19 +7576,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>197.2639259747624</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>423.8876955505251</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920153</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>611.177706503543</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211817</v>
+        <v>604.1626973083978</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>183.630508041355</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>277.776813824436</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>233.0219164930872</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>561.055528126942</v>
+        <v>544.1202775014892</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431201</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8532,22 +8532,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>409.0851831005062</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8769,22 +8769,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,16 +9006,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,10 +9246,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>400.7288157213065</v>
       </c>
       <c r="M18" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9404,7 +9404,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987036</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9480,7 +9480,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>295.3946671166309</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9492,13 +9492,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P21" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,22 +9720,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>377.3304183063262</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488197</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10902,25 +10902,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>499.3034269858954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6662334481136</v>
+        <v>236.3339907133473</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>22.24948517985013</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>28.93200944226555</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>42.12645969582757</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>61.46315261051539</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.92381152902223</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>19.36909990056144</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1237377.366996387</v>
+        <v>1235572.724155107</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1237377.366996387</v>
+        <v>1235572.724155107</v>
       </c>
     </row>
     <row r="4">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90166.0890466784</v>
+        <v>90166.08904667839</v>
       </c>
       <c r="C2" t="n">
-        <v>90166.08904667839</v>
+        <v>90166.08904667837</v>
       </c>
       <c r="D2" t="n">
+        <v>90166.08904667837</v>
+      </c>
+      <c r="E2" t="n">
+        <v>79679.51171220037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79679.51171220036</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90166.08904667843</v>
+      </c>
+      <c r="H2" t="n">
         <v>90166.08904667835</v>
-      </c>
-      <c r="E2" t="n">
-        <v>79679.5117122004</v>
-      </c>
-      <c r="F2" t="n">
-        <v>79679.51171220039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90166.08904667846</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90166.0890466784</v>
       </c>
       <c r="I2" t="n">
         <v>90166.08904667842</v>
       </c>
       <c r="J2" t="n">
-        <v>90166.08904667836</v>
+        <v>90166.08904667843</v>
       </c>
       <c r="K2" t="n">
+        <v>90166.08904667842</v>
+      </c>
+      <c r="L2" t="n">
+        <v>90166.08904667837</v>
+      </c>
+      <c r="M2" t="n">
         <v>90166.08904667843</v>
       </c>
-      <c r="L2" t="n">
-        <v>90166.08904667858</v>
-      </c>
-      <c r="M2" t="n">
-        <v>90166.08904667846</v>
-      </c>
       <c r="N2" t="n">
-        <v>90166.08904667842</v>
+        <v>90166.08904667843</v>
       </c>
       <c r="O2" t="n">
-        <v>90166.08904667845</v>
+        <v>90166.08904667843</v>
       </c>
       <c r="P2" t="n">
         <v>90166.08904667843</v>
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.4295340133</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.24177539656</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488214</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488214</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,25 +26427,25 @@
         <v>151510.2534766781</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="K4" t="n">
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,31 +26482,31 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="H5" t="n">
-        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-391147.4729990704</v>
+        <v>-386194.4795710156</v>
       </c>
       <c r="C6" t="n">
-        <v>-208942.5247072147</v>
+        <v>-212335.8225369603</v>
       </c>
       <c r="D6" t="n">
-        <v>-217263.3650927843</v>
+        <v>-224999.6543161756</v>
       </c>
       <c r="E6" t="n">
-        <v>-237139.3229383628</v>
+        <v>-237349.0544850523</v>
       </c>
       <c r="F6" t="n">
-        <v>-125016.7614643183</v>
+        <v>-125226.4930110079</v>
       </c>
       <c r="G6" t="n">
         <v>-214698.1757737834</v>
       </c>
       <c r="H6" t="n">
+        <v>-167272.8502371015</v>
+      </c>
+      <c r="I6" t="n">
         <v>-167272.8502371016</v>
       </c>
-      <c r="I6" t="n">
-        <v>-167272.8502371015</v>
-      </c>
       <c r="J6" t="n">
-        <v>-380314.767834387</v>
+        <v>-373798.482679814</v>
       </c>
       <c r="K6" t="n">
         <v>-173512.6186398845</v>
       </c>
       <c r="L6" t="n">
-        <v>-228695.2075745055</v>
+        <v>-232744.0447849778</v>
       </c>
       <c r="M6" t="n">
-        <v>-209473.6796967246</v>
+        <v>-210525.3747079127</v>
       </c>
       <c r="N6" t="n">
-        <v>-167272.8502371016</v>
+        <v>-167272.8502371015</v>
       </c>
       <c r="O6" t="n">
-        <v>-195040.5442798727</v>
+        <v>-195040.5442798728</v>
       </c>
       <c r="P6" t="n">
         <v>-167272.8502371015</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431644</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26814,19 +26814,19 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293144</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>34.70961755346403</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.0703022192457</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971653</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042787</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>34.70961755346403</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>377.0266241129852</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84.61608715524062</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.59637205718727</v>
+        <v>132.6819913403905</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>125.9942901065511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>144.1400749395018</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.6070938624514</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27673,10 +27673,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>198.2282509500486</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343246</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>36.03005425080833</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>140.6271657791627</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>182.0209374894505</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>276.6462275846214</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>348.8841142359818</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>132.901658868756</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>154.9986533628255</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28068,13 +28068,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28986,10 +28986,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29217,17 +29217,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668816</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>86.65052755599527</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431675</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566375</v>
+        <v>43.49509683160295</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861253966</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031689</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P37" t="n">
-        <v>5.636002634528481</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,19 +30402,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>28.01250026485209</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S41" t="n">
         <v>130.3599693155844</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>128.2979821082783</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>130.3599693155844</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,16 +30879,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.636002634529149</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>54.20552279552501</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>274.1626439527978</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701508</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.94294915246613</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>128.0517622267088</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>83.90342515530314</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776302</v>
+        <v>451.7331554521773</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>319.4882477671728</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="M18" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36200,7 +36200,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>205.7977317832976</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36212,13 +36212,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,10 +36282,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302988</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K25" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>531.1349729017816</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271087</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851011</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009069</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>258.8908014987988</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>475.3883602044894</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,7 +37081,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114501</v>
+        <v>487.9795421773892</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7334829729928</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653316</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>261.8338889252757</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37622,25 +37622,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>409.2430801289772</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>213.0525346398109</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>249.3850182462365</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094879</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
